--- a/수정리스트_20160719.xlsx
+++ b/수정리스트_20160719.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="187">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -768,6 +768,18 @@
   </si>
   <si>
     <t>리스트 댓글 2번째껏 짤림. 2~3개 나오도록 해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.07.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부화면처럼  깨짐.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1017,6 +1029,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>175683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2305049</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1276348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="28312533"/>
+          <a:ext cx="619124" cy="1100665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1306,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2745,6 +2806,27 @@
       <c r="H65" s="16"/>
       <c r="I65" s="23"/>
     </row>
+    <row r="66" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -2752,6 +2834,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
